--- a/data/trans_dic/LAWTONB_2R3-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/LAWTONB_2R3-Habitat-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.2120444998460823</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.3014207165353518</v>
+        <v>0.3014207165353517</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1100101022093254</v>
+        <v>0.1126431652336979</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1159188645675974</v>
+        <v>0.1185833971982029</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1201991456072252</v>
+        <v>0.1171944390161625</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.188888255749959</v>
+        <v>0.1969999462202126</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.113988651675497</v>
+        <v>0.1119198831535849</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2018187395881168</v>
+        <v>0.1976041084531337</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.178382649776115</v>
+        <v>0.176640195722104</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.3040468822402078</v>
+        <v>0.3052803971813313</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.130650259151645</v>
+        <v>0.1334207686330574</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1811052945682852</v>
+        <v>0.1804054417099185</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1712446798245589</v>
+        <v>0.1681963037916341</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2670690069359199</v>
+        <v>0.2622201195078949</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2387754869954181</v>
+        <v>0.2447403012139137</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2535340441737645</v>
+        <v>0.2548545682613528</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2364056508297882</v>
+        <v>0.2438690330262488</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.301479081192808</v>
+        <v>0.3026997400574234</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2374021721872673</v>
+        <v>0.2401728640085195</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3509211718224924</v>
+        <v>0.3363733016114091</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3114048865951266</v>
+        <v>0.307127582711126</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3962647975940708</v>
+        <v>0.3986338052542974</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2229543157800067</v>
+        <v>0.2271950388180462</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2787890555448645</v>
+        <v>0.2805271927786153</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2627742485984934</v>
+        <v>0.2649350535966763</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3395208158045314</v>
+        <v>0.3354078386872424</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.2484621294270304</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.2947866288860786</v>
+        <v>0.2947866288860785</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.1759621552745631</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.08638534314125713</v>
+        <v>0.08541110381722256</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1734901249170156</v>
+        <v>0.1754979212515694</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1150473920351369</v>
+        <v>0.1184387653535524</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1325705540669489</v>
+        <v>0.1326799087988433</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.151686027288835</v>
+        <v>0.1488847421737861</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2471943653014933</v>
+        <v>0.251174441510883</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.186868470905314</v>
+        <v>0.1870885657264521</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.252816161700078</v>
+        <v>0.2552658749322467</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1355129804885292</v>
+        <v>0.1352890560351804</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2328008617288951</v>
+        <v>0.2330903994755325</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1719508459836012</v>
+        <v>0.1693205064485569</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2123213527004063</v>
+        <v>0.2143302970424576</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1962850538272617</v>
+        <v>0.2018569120810468</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.315305747251686</v>
+        <v>0.3198838965105552</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2228776568984579</v>
+        <v>0.224834560096785</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2255868814641748</v>
+        <v>0.2279576887634907</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2831097079224633</v>
+        <v>0.2780477020437808</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3852913215031185</v>
+        <v>0.3869921391098906</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3215254225666202</v>
+        <v>0.321834609864149</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3370217184558904</v>
+        <v>0.3421549328572566</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.221847400024213</v>
+        <v>0.2200920823523347</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3335924180541661</v>
+        <v>0.3306918240529806</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2581206069548397</v>
+        <v>0.2558682063368806</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2771904568719969</v>
+        <v>0.2770292389392864</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.06160624143818763</v>
+        <v>0.05594892206028569</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1467718671252299</v>
+        <v>0.1347278720390344</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.07134243517632341</v>
+        <v>0.06939089620743064</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.05008152142774002</v>
+        <v>0.05094959231934087</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.08839645976207922</v>
+        <v>0.08506364197874708</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2274128162032635</v>
+        <v>0.2175892251329354</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2040101238338484</v>
+        <v>0.2011767200799794</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2015329653817818</v>
+        <v>0.201286753392676</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.08483718799157881</v>
+        <v>0.0904940193081384</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2083033988926</v>
+        <v>0.2077659863258322</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1597861373696212</v>
+        <v>0.1642162824352593</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1407869221103946</v>
+        <v>0.1386536758437334</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1914867396129754</v>
+        <v>0.181229648573302</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3184076533167775</v>
+        <v>0.3161463911560301</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1868399355757757</v>
+        <v>0.195285994377219</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1328840250220941</v>
+        <v>0.1328401836708314</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2027555577642112</v>
+        <v>0.2088260994612645</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3893947282810389</v>
+        <v>0.3788845087962745</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3731783568237558</v>
+        <v>0.3629645505448598</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3075080436924013</v>
+        <v>0.3024458931505147</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1751659757353542</v>
+        <v>0.1811158472542982</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3292411896722662</v>
+        <v>0.32337070047337</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2712853447836662</v>
+        <v>0.2712618166842678</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2041265406772811</v>
+        <v>0.2052289308141963</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.05989017475022256</v>
+        <v>0.06043915784574665</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.14272982940919</v>
+        <v>0.1371994184638201</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.09037011624519449</v>
+        <v>0.08993507586970739</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.09857510675560667</v>
+        <v>0.1002830898506625</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1551843397004204</v>
+        <v>0.1513455192809463</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.14596677860449</v>
+        <v>0.1492098422154221</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1448957926589839</v>
+        <v>0.1389688579614538</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2126938443776481</v>
+        <v>0.2175078559245291</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.128701355576005</v>
+        <v>0.128974362307851</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1579884996868825</v>
+        <v>0.1600189500765078</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1312420188976861</v>
+        <v>0.1313822166052963</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1771498681445558</v>
+        <v>0.1770519368841307</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1532985665089175</v>
+        <v>0.1491609638014414</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2701570585179751</v>
+        <v>0.2810245936207272</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1940614459046438</v>
+        <v>0.1915390560397402</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1720733618949255</v>
+        <v>0.1749520839145539</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2730234297577941</v>
+        <v>0.2684371133961439</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.249032359001692</v>
+        <v>0.2548603859461422</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2645569960151889</v>
+        <v>0.2518275278670562</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2921240382347649</v>
+        <v>0.2924810258270618</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.207531724757914</v>
+        <v>0.2075879358685807</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2381777987775904</v>
+        <v>0.2412797221602303</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2115653310713192</v>
+        <v>0.2139284448940837</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2344603209352005</v>
+        <v>0.2313773191733626</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.2356850902301122</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.2843205443861945</v>
+        <v>0.2843205443861946</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.1615335818302416</v>
@@ -1241,7 +1241,7 @@
         <v>0.1989635553064476</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.2293674586049771</v>
+        <v>0.229367458604977</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.102339657825441</v>
+        <v>0.1050894556205817</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1721414536845844</v>
+        <v>0.1703829782223399</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1229027977679228</v>
+        <v>0.1252681364379513</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1386692186258262</v>
+        <v>0.1380809580121421</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1567462371868074</v>
+        <v>0.1563484564930017</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2289677460627383</v>
+        <v>0.2309471252751682</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2026638777498206</v>
+        <v>0.2029084896002077</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2610304638982825</v>
+        <v>0.2629294017294213</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1395212927983874</v>
+        <v>0.139905424332552</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2156906679844358</v>
+        <v>0.2160563263473659</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1759973014521063</v>
+        <v>0.1767220275867888</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.213086663534298</v>
+        <v>0.2137453231795672</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.161099927688192</v>
+        <v>0.1618023642772639</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2482533458573305</v>
+        <v>0.2481844182131615</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1780213972559931</v>
+        <v>0.1796375517790794</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1819598922822145</v>
+        <v>0.1834510773133514</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.217291941809795</v>
+        <v>0.2182355184579468</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2972471592053033</v>
+        <v>0.2960561611486903</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2679480684836626</v>
+        <v>0.2700061819504744</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3060275747994671</v>
+        <v>0.3084336816427625</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1854226919725903</v>
+        <v>0.1829125183753606</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2663729468367856</v>
+        <v>0.2626933883316452</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2214469323528347</v>
+        <v>0.2214184270641579</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2455771734084569</v>
+        <v>0.2463398474749019</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>12650</v>
+        <v>12953</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>16176</v>
+        <v>16548</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>16435</v>
+        <v>16024</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>30848</v>
+        <v>32173</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>17045</v>
+        <v>16736</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>33661</v>
+        <v>32958</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>30930</v>
+        <v>30628</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>57709</v>
+        <v>57943</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>34560</v>
+        <v>35293</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>55479</v>
+        <v>55264</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>53107</v>
+        <v>52162</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>94307</v>
+        <v>92594</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>27457</v>
+        <v>28142</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>35380</v>
+        <v>35564</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>32325</v>
+        <v>33345</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>49236</v>
+        <v>49435</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>35500</v>
+        <v>35914</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>58529</v>
+        <v>56103</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>53995</v>
+        <v>53253</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>75212</v>
+        <v>75662</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>58977</v>
+        <v>60099</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>85403</v>
+        <v>85935</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>81493</v>
+        <v>82163</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>119891</v>
+        <v>118438</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>12603</v>
+        <v>12461</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>26870</v>
+        <v>27181</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>18976</v>
+        <v>19535</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>23625</v>
+        <v>23644</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>27710</v>
+        <v>27198</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>47318</v>
+        <v>48080</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>40955</v>
+        <v>41003</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>60860</v>
+        <v>61449</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>44525</v>
+        <v>44452</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>80618</v>
+        <v>80719</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>66047</v>
+        <v>65037</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>88948</v>
+        <v>89789</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>28636</v>
+        <v>29449</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>48834</v>
+        <v>49543</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>36762</v>
+        <v>37084</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>40200</v>
+        <v>40623</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>51718</v>
+        <v>50794</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>73752</v>
+        <v>74078</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>70466</v>
+        <v>70534</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>81130</v>
+        <v>82366</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>72892</v>
+        <v>72315</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>115522</v>
+        <v>114518</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>99145</v>
+        <v>98280</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>116123</v>
+        <v>116056</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>6430</v>
+        <v>5839</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>15205</v>
+        <v>13958</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>8207</v>
+        <v>7982</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>7921</v>
+        <v>8058</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>12009</v>
+        <v>11556</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>32070</v>
+        <v>30684</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>29091</v>
+        <v>28687</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>35156</v>
+        <v>35113</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>20380</v>
+        <v>21739</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>50955</v>
+        <v>50823</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>41166</v>
+        <v>42307</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>46825</v>
+        <v>46116</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>19986</v>
+        <v>18915</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>32986</v>
+        <v>32752</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>21493</v>
+        <v>22465</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>21017</v>
+        <v>21010</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>27544</v>
+        <v>28369</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>54912</v>
+        <v>53430</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>53214</v>
+        <v>51757</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>53642</v>
+        <v>52759</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>42079</v>
+        <v>43508</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>80538</v>
+        <v>79102</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>69892</v>
+        <v>69885</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>67892</v>
+        <v>68259</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>8218</v>
+        <v>8293</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>23067</v>
+        <v>22173</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>15780</v>
+        <v>15704</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>20753</v>
+        <v>21113</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>32399</v>
+        <v>31597</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>35579</v>
+        <v>36370</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>35178</v>
+        <v>33739</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>62372</v>
+        <v>63784</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>44530</v>
+        <v>44624</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>64043</v>
+        <v>64866</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>54780</v>
+        <v>54839</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>89244</v>
+        <v>89195</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>21035</v>
+        <v>20467</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>43661</v>
+        <v>45417</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>33887</v>
+        <v>33446</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>36227</v>
+        <v>36833</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>57001</v>
+        <v>56043</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>60702</v>
+        <v>62122</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>64229</v>
+        <v>61139</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>85664</v>
+        <v>85769</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>71805</v>
+        <v>71824</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>96548</v>
+        <v>97806</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>88307</v>
+        <v>89294</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>118116</v>
+        <v>116563</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>51422</v>
+        <v>52804</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>96337</v>
+        <v>95353</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>72676</v>
+        <v>74075</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>98484</v>
+        <v>98066</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>106092</v>
+        <v>105823</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>170117</v>
+        <v>171588</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>157659</v>
+        <v>157849</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>234462</v>
+        <v>236168</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>164539</v>
+        <v>164992</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>280961</v>
+        <v>281438</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>240986</v>
+        <v>241978</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>342734</v>
+        <v>343793</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>80947</v>
+        <v>81300</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>138932</v>
+        <v>138893</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>105269</v>
+        <v>106225</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>129229</v>
+        <v>130288</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>147072</v>
+        <v>147711</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>220847</v>
+        <v>219962</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>208445</v>
+        <v>210046</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>274879</v>
+        <v>277041</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>218670</v>
+        <v>215710</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>346981</v>
+        <v>342188</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>303218</v>
+        <v>303179</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>394992</v>
+        <v>396219</v>
       </c>
     </row>
     <row r="24">
